--- a/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. The subcommittees will come to order.    Without objection, all members may have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    I recognize myself for the opening statement.    Time and time again, we are reminded of the massive damage that terrorists cause even with just a little money. Today, terrorist groups have more money than some small countries. ISIS is the richest terrorist organization in world history, bringing in over $1 billion in 2014 alone.    Drawing on these funds, ISIS has managed to stage terrorist attacks throughout the world and kill thousands of people. ISIS is not alone. Terrorists raise billions annually to carry out their bloody agendas. This is precisely why our Government agencies have been tasked with stemming the flow of money to terrorist groups. When we can separate the terrorists from their money, lives can be saved.    According to the Treasury Department, the underlying vulnerabilities within the U.S. financial system today ``remain largely the same as those identified in 2005.'' Terrorists are still able to park and move cash through financial systems.    Part of the problem is that the United States still does not have a comprehensive strategy across all American agencies to combat terrorist financing. Policies and priorities differ from one agency to the next in a seemingly ad hoc fashion. In fact, there isn't even a clear method by which our various agencies can coordinate their efforts. Agencies working on counterterrorist finance had previously coordinated through the Terrorist Financing Working Group. However, this working group has been on a hiatus for some time and agencies are forced to coordinate informally.    Another tool to counter terrorist financing that hasn't been used: Designation of domestic charities. According to the Treasury Department's Web site, the United States has not blacklisted any charities since the February 2009 designation of the Tamil Foundation. There are also nonconcrete metrics in place to measure the effectiveness of counterterrorist finance efforts, making it difficult to determine the need and appropriate tools required for a successful strategy.    For instance, the counter-ISIL finance cell was established in late 2014 to work on intelligence collection and operations to cut off ISIS' financing. The administration says that the cell has significantly improved our understanding of ISIS' financial activity. This is a start, but what are the cell's metrics of success? What are its goals, and how do we know if it is doing a good job?    Beyond its own government efforts, we still have a long way to go when it comes to collaborating with our international partners to counter terror finance, to ensure our efforts are not fragmented, and that our respective skills and intelligence are leveraged correctly.    Sometimes our international partners seem to be doing exactly the opposite of what our policy is. According to U.S. Government figures, terrorist groups earned over $165 million between 2000 and 2014 from governments that make ransom payments. To better understand the significance of this troubling trend, Treasury Under Secretary David Cohen said in 2012 that kidnapping for ransom has become so lucrative for terrorists that it is today's most significant source of terrorist financing.    Denying terrorists ransom payments is not just a U.S. policy. It is the international standard champion by the Financial Action Task Force, the Counter-ISIL Financing Group, and the United Nations.    International noncompliance with antiterror financing standards does not just end there. According to a Financial Action Task Force report, almost every country in the world has enacted antiterror financing laws, but only 33 of the 194 countries surveyed have actually reported any convictions using these laws.    The laws are worthless unless they are put into action. We must do more to get our partners to implement these laws so that they will have already passed in their respective nations.    Our international partners can also do more to stop the flow of money from private donors to terrorist groups. Between 2013 and 2014, ISIS received $40 million from donors in Saudi Arabia, Qatar, and Kuwait. All those countries have terror financing laws on the books, but the money still flows across their borders to ISIS.    The more we can improve on both our internal coordination and our international cooperation, the less money terrorists can have. We need more information. We need to have more information, and we know both wildlife trafficking and trade-based money laundering are sources for revenue for terrorists as well. We simply have not collected the necessary intelligence, however, and done the required analysis to understand these sources.    Going after sources of revenue for terrorists can be a powerful tool to render them powerless. Terrorists need money to pay their fighters, buy their weapons, and pull off the attacks. If we can work to deny them the money, that means we are a big step closer to defeating terrorists worldwide.    I will now yield to the gentleman from South Carolina to make his opening statement.</t>
   </si>
   <si>
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Judge Poe, and thank you for recommending this hearing on such an important topic. And I am pleased that we are reviewing this subject in a joint hearing of the two subcommittees.    Since I sit on your subcommittee in addition to chairing the Emerging Threats, I consider this a very efficient use of time. I would also like to thank Ranking Member Jim Langevin and Ranking Member Bill Keating for their contributions and participation today.    We welcome our panel of experts from this interagency team for today's hearing. I would especially like to welcome back Secretary Theresa Whelan from the Department of Defense. Secretary Whelan has appeared before the Armed Services Committee many times, as well as the subcommittee. She brings a wealth of knowledge and experience on important issues within her portfolio.    And I am pleased to have the opportunity today to talk about the topic of countering terrorist financing with our colleagues from the Terrorism, Nonproliferation, and Trade Subcommittee. I am honored to be the chairman of the Emerging Threats and Capabilities Subcommittee as we oversee some of the most forward-looking, cutting edge, and in-demand aspects of the Department of Defense.    As we consider this important topic today of countering terrorist financing, I think we should keep in mind two important frames of reference. First, countering the finances of terrorist groups remains a relatively new area of focus for the United States Government and interagency in particular.    Although the attacks of September 11 serves as the most recent forcing function, the subsequent wars of Afghanistan and Iraq showed us that the unabated financing of terrorists and insurgence groups can prolong conflicts and frustrate our national security objectives putting American families at risk.    The more recent rise of ISIL, or Daesh, with nearly $1 billion in annual revenue proves again, for our enemies, cash remains king.    Second, we should continually keep in mind how difficult this problem set is. Eliminating and countering the finances of illicit and terrorist networks that operate in ever changing and clandestine manner is very difficult work. I encourage each of the colleagues today to ask questions of our witnesses on how they are resourced in this important fight to stem the flow of dollars to our enemies.    I again would like to thank Judge Poe for holding this joint hearing between the two subcommittees. I look forward to hearing from our distinguished panel of witnesses today.    And with that, I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. I thank the chairman of the Armed Services Emerging Threats and Capabilities Subcommittee.    I yield to the gentleman from Massachusetts, Mr. Bill Keating, for his opening statement, the ranking member of the Terrorism Subcommittee.</t>
   </si>
   <si>
-    <t>Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Well, thank you, Chairman Poe, for conducting the afternoon's hearing, and I appreciate your concern for terrorist financing and your leadership on continuing this conversation both within Congress and externally. I would also like to thank Chairman Wilson and Ranking Member Langevin of the Armed Services Subcommittee on Emerging Threats and Capabilities for their shared focus and work on this subject as well.    And of course, I appreciate the time of our witnesses who have joined from the Department of State, Treasury, Defense, and Interior to discuss this critical topic. Your ongoing attention and commitment to countering terrorist financing is the bedrock of our coordinated effort to stop the money flow, as the title of today's hearing suggests.    I also think it should be said strongly and with great appreciation for the work that is done by our men and women that are serving so well in the military. Just within the last 4 weeks, I was honored to join them aboard the aircraft carrier Harry S. Truman and see their mission in interrupting financing as well in a direct military sense. Their success at destroying cash depots and interrupting oil supply has been extraordinary, and their service should be recognized in this hearing as well.    But as we know, terrorist financing has to be resolved at many levels in terms of trying to attack it, and it is a complicated, intricate, nuanced, and clandestine effort, making it difficult to identify, follow, and to stop. Organized groups such as ISIL rely on diversified revenue streams ranging from pirated oil fields and extortion to imposition of taxes on areas that it controls, to seizures, and to the sale of looted antiquities.    Our concern doesn't end with the trafficking of foreign terrorist organizations, however. Organized crime syndicates also fund illicit activities through a variety of subversive efforts. Wildlife trafficking, for example, is estimated to generate billions of dollars for organized crime enterprises. It has also been reported that these groups are using human and organ trafficking as well as--for a revenue source, in addition to illicitly smuggling tobacco and tobacco products.    Not only do such black market dealings contribute to an illegal economy, but they fuel instability and they undermine global security. This is not to say the U.S. has not had success. Just this week, the U.S. Fish and Wildlife Service led efforts to institute a near total ban on domestic, commercial trade of elephant ivory, which aims at reducing the opportunities for wildlife traffickers to trade illegal ivory under the guise of legal products.    Over a 3-year period, an estimated 100,000 elephants were killed for their ivory, which is an average of approximately one every 15 minutes. These animals--ivory generates millions of dollars in illegal funds.    Separately, last month, the President signed into law legislation that imposes tough new import restrictions on antiquities that attract trafficking out of Syria. I was proud to play a leading role in advancing H.R. 1493, along with the support of the Foreign Affairs Committee Chairman Ed Royce, Ranking Member Engel, and Chairman Judge Poe.    These successes, however, should not allow us to become complacent. While identifying and stopping traditional financing methods, such as hawala and hawala trade-based money laundering, the cash couriers are important. Agencies must look at new and emerging ways through which organizations are able to generate funds.    Virtual currency platforms and digital finance allows organized crime and terrorist groups to commit crimes anonymously. Digital currencies could facilitate money laundering, alleviating the need for criminal infrastructures at their base.    With respect to terrorism, anonymous marketplaces on the Internet allow the sale of illegal goods and services and risk the convergence of terrorism and organized crime. We must utilize all the resources at our disposal to target every terrorist organized crime funding entity no matter where it comes from.    I look forward to hearing from today's witnesses on these subjects, as well as working with our international allies to end and prevent terrorist organizations from generating this type of illicit money.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -82,45 +73,30 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank you and Chairman Wilson and Ranking Member Keating for convening this hearing, and I especially want to thank our witnesses for being here today.    In particular, I want to welcome Secretary Whelan here who has been before our subcommittee many times. I appreciate your presence, to all of you, and look forward to your testimony.    So I am pleased to join my Foreign Affairs Committee colleagues on the topic of countering threat financing. The combined force of our committees on this issue is paramount because effective CTF requires the collaboration and synchronization of a multitude of U.S. Government agencies. Holding this joint hearing will provide us an opportunity to understand CTF efforts and strategies in a holistic manner and what we can do to enhance its overall effectiveness.    Threat financing activities comes in many forms, from, as my colleagues have touched on already, from illicit drug trafficking, to wildlife poaching, to ISIL's alarming oil revenues. And understanding such activities and the associated organizations and networks, of course, is the first step, including the alternative financing through traditional financial institutions, as Mr. Keating had talked about, understanding the role that that is playing.    The Department of Defense plays a key role in this endeavor by providing threat finance intelligence, or TFI, to enhance our understanding of the challenges before us. Today, I look forward to hearing more about how such information is shared amongst agencies in a timely manner and used to produce synchronized goals and efforts to disrupt, degrade, and destroy such financing.    I also look forward to hearing from DOD and other agencies about the progress that has been made when it comes to institutionalizing CTF. This collaboration in Afghanistan resulted in many successes, and it is imperative we have a grasp on how such lessons learned are being leveraged.    With respect to the DOD, has progress been made on gaps identified in the recent capabilities-based assessment, such as CTF integration into joint plans and joint doctrine? How are we measuring the effectiveness of these efforts?    And finally, I hope today will provide insight into ongoing U.S. Government efforts in countering ISIL's oil revenue and the challenges we face on this front, as well as overall challenges with CTF that our committees could be helpful in providing solutions to when working with agencies.    So with that, I thank again our witnesses for being here. And thank you, Mr. Chairman. I would yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Rhode Island.    Without objection, all members may have 5 days to submit statements, questions, and extraneous material for the record subject to the length limitation in the rules.    I will introduce the witnesses and give them time for opening statements.    Mr. Daniel Glaser is the assistant secretary for terrorist financing in the Treasury Department's Office of Terrorism and Financial Intelligence. Mr. Andrew Keller is the deputy assistant secretary for counterthreat finance and sanctions in the State Department's Bureau of Economic and Business Affairs. Ms. Theresa Whelan serves as the principal deputy assistant secretary for defense for special operations, low intensity conflict. She is a career member of the Senior Executive Service and has worked for 27 years in the defense intelligence area. Mr. William Woody is the chief of the Office of Law Enforcement of the U.S. Fish and Wildlife Service.    Without objection, the witnesses' prepared statements will be made part of the record.    I ask the witnesses please keep your remarks to no more than 5 minutes. If you hear the gavel, that means you have got to stop. So 5 minutes, and we will start with you, Mr. Glaser. You may present your opening statement.</t>
   </si>
   <si>
-    <t>Glaser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Glaser. Chairman Poe, Chairman Wilson, Ranking Members Keating and Langevin, thank you for inviting me to testify on our efforts to combat terrorist financing. Disrupting the flow of funds to terrorists and terrorist organizations is an integral part of our broader strategy to combat terrorism. Treasury is in a unique position to advance these efforts.    At its core, combating terrorist financing consists of two interrelated objectives. First, cutting terrorists off from their sources of revenue so they cannot make money; second, denying them access to the international financial system so they cannot use the money they have.    We accomplish these goals by improving financial transparency globally so that terrorists cannot anonymously raise, move, and use funds without detection, and then identifying, disrupting, and dismantling the networks supporting terrorist organizations.    We have a range of tools available to us to do so. Financial measures, such as targeted sanctions and section 311 of the USA PATRIOT Act, law enforcement actions, and engagement with foreign partners in the private sector. The combined effect of these efforts is to create an international financial system that is a hostile environment for terrorist financing.    I would like to briefly summarize our efforts to disrupt the financial networks of three prominent terrorist organizations: ISIL, al-Qaeda, and Hezbollah. I will speak first to ISIL, the vast majority of whose revenue, estimated at almost $1 billion in 2015, is derived internally from a combination of oil sales and extortion of the population and commercial activity under its control. The fact that these sources of revenue are derived from ISIL's control of territory has meant that military action has been an important component of our response.    Under Operation Title Wave II, the coalition directly targeted ISIL's entire oil supply chain and destroyed tens of millions and possibly more than $100 million of ISIL's bulk cash. Our response, however, has been broader than military action. For example, the Government of Iraq decided in August 2015 to ban the distribution of government salaries into ISIL-held areas, thereby eliminating ISIL's ability to tax these substantial funds. Additionally, we have worked closely with the Central Bank of Iraq to secure Iraq's financial system from access by ISIL.    Turning now to al-Qaeda. Al-Qaeda remains a critical threat to the United States, and we continue to aggressively target the organization around the world. Al-Qaeda has historically received funds from within Gulf countries, safe haven in Afghanistan and Pakistan, and now is increasingly present in Yemen and Syria. We have made significant progress targeting al-Qaeda's financing in concert with our partners internationally. However, the terrorist financing risk emanating from the Gulf remains a priority.    Collectively, Gulf countries have pursued a wide range of actions, including implementing targeted financial measures and prosecuting terrorists for financing al-Qaeda, but considerable work remains to be done to ensure that terrorist financiers are unable to raise and move funds within Gulf countries. And we are committed to working with our partners in the region to see that this is done.    Our efforts have not been limited solely to the Gulf. Treasury has continued to work toward disrupting and dismantling terrorist financial networks in Afghanistan and Pakistan as well. We have aggressively used Treasury tools to limit al-Qaeda funding streams, designating over 140 individuals affiliated with al-Qaeda and other terrorist organizations throughout Afghanistan and Pakistan.    It is important to remember, however, that before al-Qaeda's attack on 9/11, Hezbollah had killed more Americans than any other terrorist organization in history, and it continues to plot terrorist attacks around the world. Hezbollah receives the majority of its funding, hundreds of millions of dollars, from Iran, as well as millions of dollars from a global network of supporters and businesses.    Our approach has focused on targeting Hezbollah both within Lebanon, constraining it financially through extensive cooperation with Lebanese authorities and banks, and globally, by targeting its procurement agents and financiers in Europe, Latin America, East Asia, and the Middle East.    Identifying and sanctioning Hezbollah's Iranian sponsors and enabling law enforcement and foreign partner actions, our toolkit to impose targeted measures against Hezbollah was recently expanded with the passage of Hizballah International Financing Prevention Act of 2015, or HIFPA. HIFPA represents a continuation of our policy to financially weaken Hezbollah. Foremost in ensuring our implementation of HIFPA is our close collaboration with the Central Bank of Lebanon and private Lebanese financial institutions, which are adhering to this legislation--which are adhering to this legislation to Hezbollah's great consternation.    We intend to implement HIFPA robustly in a manner that is consistent with preserving the strength and health of the Lebanese financial system and that does not target any specific community or sect. Our implementation intends to target one group and one group only: Hezbollah, the organization, its members, the entities it owns and controls.    While new terrorist financing challenges will surely emerge, Treasury and its interagency partners will continue to employ a range of measures to identify, disrupt, and dismantle terrorist financial networks and work to identify and close loopholes that terrorists and other illicit actors can use to access the international financial system.    Thank you for the opportunity to testify today, and I would be happy to answer any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Glaser.    Mr. Keller, you have 5 minutes.</t>
   </si>
   <si>
-    <t>Keller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keller. Chairman Poe, Chairman Wilson, Ranking Member Keating, Ranking Member Langevin, distinguished members of the committees, thank you for the opportunity to speak here today about the State Department's counterterrorism finance efforts.    Counterterrorism finance is a top priority for the Department of State, and we have a wide variety of tools to disrupt terrorist financial networks. It is a complex and dynamic threat and one that requires the U.S. Government to utilize the full range of its resources and authorities.    My office at the State Department helps coordinate policy and liaise with our interagency partners, including the Departments of Treasury and Defense, to achieve our counterterrorism goals. We also work closely with the State Department's counterterrorism bureau and the Department of Treasury on counterterrorism finance sanctions to ensure that our sanctions promote broader U.S. foreign policy interests.    The fight against ISIL is one of the top national security priorities, and it is my principal counterterrorism focus. That is where I will focus my remarks today.    As you highlighted, Chairman Poe, ISIL's revenues in 2014 and 2015 made it the richest terrorist group in the world, yet as a result of U.S. and coalition efforts, ISIL's revenues are on a downward trajectory, which has impacted its operations in Iraq and Syria. I would like to provide two examples.    ISIL has cut salary payments to its fighters in Raqqa and Mosul by 50 percent, leaving many ISIL fighters to defect. And ISIL has increasingly resorted to arbitrary tax increases and outright theft to make up the funding gap, further undermining its claims to legitimacy.    While we are encouraged by these indications of financial stress, we are fully aware that there is still much work to do to further weaken ISIL on the financial front. Our most effective method of disrupting ISIL's revenues to date has been U.S. and coalition strikes against their oil and gas supply chain and cash storage sites. These efforts have reduced ISIL's oil revenues by up to one-third and destroyed tens and potentially hundreds of millions of dollars' worth of cash.    Kinetic efforts have complemented diplomatic efforts aimed at ISIL's finances. The U.S. Government helped establish and now coleads an international working group dedicated to counter ISIL finance, and we have negotiated multiple U.N. Security Council resolutions to increase financial pressure on ISIL. In particular, I would highlight Security Council Resolution 2199, which imposes obligations on all countries to take steps to combat ISIL financing, particularly in the areas of oil, antiquities, and kidnapping for ransom.    The Department of State also conducts bilateral diplomatic engagement with key countries in the Middle East and around the world. Our Embassies consistently engage foreign government officials on specific terrorism finance matters, promote counterterrorism finance tools more generally, and encourage implementation of domestic and international legal framework to combat terrorism.    In an effort to address the systemic gaps in the international system that terrorists and other criminals exploit to raise and transfer funds, the State Department also allocates significant funding to build the capacity of partner countries to counter terrorist financing. The Bureau of Counterterrorism is helping partner nations build their capacity to investigate and prosecute illicit financial transactions, while the State Department Bureau of International Narcotics and Law Enforcement funds programs to help countries identify how they can improve their antimoney laundering and counterterrorism finance regulations.    With regard to trafficking in antiquities, the Department of State has also led outreach to prominent antiquities dealers, auction houses, and museum administrators. We have offered up to $5 million worth of reward money for information leading to the disruption of ISIL's trafficking in antiquities through our Rewards for Justice program, and we have funded government and civil society training program to help protect antiquities in Iraq, Syria, and Libya.    Terrorism finance is a multifaceted and dynamic problem, and ISIL has proven to be a resilient foe. As our efforts targeting ISIL financing demonstrate, counterterrorism finance is a top property priority for our State Department and our interagency partners. We will continue to use every tool available to maintain the growing effectiveness of our economic campaign.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Keller.    Ms. Whelan.</t>
   </si>
   <si>
-    <t>Whelan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Whelan. Chairman Wilson, Chairman Poe, Ranking Member Langevin, Ranking Member Keating, and other distinguished members of the subcommittees, I appreciate the opportunity to share information with you about the Department of Defense's counterthreat finance capability.    DOD's counter-threat finance, or CTF, supports both military operations and U.S. Government partners, including our law enforcement colleagues. DOD CTF identifies and exploits the financial vulnerabilities of terrorists and transnational criminals.    Over a decade ago, we built a small but effective CTF capability within the Department through our counternarcotics authorities and appropriations. Counternarcotics is an appropriate source of authority and resources, given that the drug trade remains the world's most lucrative criminal enterprise.    Funds from the illegal drug trade are often associated with other illicit criminal enterprises, insurgencies, and terrorist organizations, including the Taliban in Afghanistan; the Revolutionary Armed Forces of Colombia, the FARC; and Lebanese Hezbollah.    Today, DOD has dedicated CTF teams at its combatant commands, at the National Guard Bureau, and at intelligence components. The CTF teams analyze financial intelligence, integrate intelligence in operations, and coordinate and execute CTF activities within the Department and with and in support of U.S. interagency partners.    DOD is not the lead U.S. agency for conducting CTF, but DOD employs unique analytic capabilities to assist other partners in accomplishing the overall CTF mission. For example, DOD analysts help support our Department of Treasury colleagues' efforts to develop designations against individuals and organizations engaged in illicit finance.    DOD CTF analysts help to identify vulnerabilities and to create a comprehensive analysis for U.S. Government partners to target an adversary's financial structure. CTF has proven to be a cost-effective tool against threatening forces and transnational criminal organizations, whether through law enforcement actions, designations, sanctions, or, as in the case of ISIL, through military actions against economic and financial targets.    DOD CTF supports the Department of State and the Department of Treasury, which are the coleads for the U.S. Government's effort to disrupt ISIL's finances. Over the past several months, ISIL has lost financial capability and revenue. Coalition military operations informed by CTF have struck nearly two dozen ISIL bulk cash storage sites and multiple targets affiliated with ISIL's illicit oil industry. Recent estimates indicate ISIL's oil production has decreased by up to 30 percent, and their ability to generate revenue has been reduced by at least as much.    In order for DOD CTF to continue supporting these and future successes on the battlefield and in law enforcement and diplomacy, we must ensure that our CTF capability is well grounded in our Department's policy planning doctrine and training and education. For example, last October, the deputy secretary of Defense recertified DOD's directive on counterthreat finance policy through 2020. We also are working to ensure that DOD plans and joint doctrine include CTF where appropriate.    Congress' support for the DOD counterdrug authorities and counterdrug funding underpins our CTF program success. Thanks to congressional support, executive branch partnership, and our talented DOD CTF personnel who work quietly behind the scenes, DOD CTF continues to provide a cost-effective capability against international terrorists and criminal adversaries that threaten our Nation, its citizens, and our allies.    Thank you for this opportunity to share with you the information about DOD's counterthreat finance program, and I welcome your comments and questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Whelan.    Mr. Woody.</t>
   </si>
   <si>
-    <t>Woody</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woody. Good afternoon, Chairman Poe, Chairman Wilson, Ranking Member Keating, Ranking Member Langevin, and members of the subcommittees. I am William Woody. I am chief of law enforcement for the U.S. Fish and Wildlife Service, and I appreciate the opportunity to testify before you today.    Wildlife trafficking is a multibillion dollar illegal trade fueled by demand and enabled by corruption, limited legal authorities, and law enforcement capacity. Globally, organized criminal groups have seized upon wildlife trafficking as a low risk, high reward, and have made illegal wildlife trafficking a crisis.    Our special agents and inspectors have specifically documented transnational organizations involved in trafficking of endangered species. We have documented Eastern European and Russian organized crime in the caviar trade, Irish organized crime in the rhino horn trade, Mexican drug organizations in the totoaba trade, African gangs in the elephant ivory poaching and smuggling, and Asian criminal groups in timber trafficking. I would like to draw your attention now to the slides. Of course, the slides won't come up.</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Rhode Island.    Ms. Whelan, submit the answer to that question to both committee chairs, the full committee chairs, and that will be dispersed to everyone, including the gentleman from Rhode Island.    The chair recognizes Colonel Cook--I started to say former Marine, but there is no such thing as a former Marine--from California.</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Judge. You are absolutely correct.    Mr. Keller, if I were President of the United States, heaven forbid, but if I said to you, what do you think, one, two, or three, are the top countries, state-sponsored aid, financial aid, to ISIS or ISIL or Daesh, whatever you want to call them, who would you name, one, two, or three? Just briefly.</t>
   </si>
   <si>
@@ -379,9 +352,6 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from California.    Without objection, the chair will recognize Ms. Gabbard from Hawaii, who is a member of both full committees, unless there is objection.    Without objection, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Mr. Keller and, both, Mr. Glaser, you have talked about how Turkey has stepped up and that they are doing more. Can you give us more specifics on what that is?    Because, like many of my colleagues, we have concerns about the leadership in Turkey, what they have done directly and indirectly, what they have not done, more importantly, as well as the informal economy that we know ISIS is using to both smuggle cash and other things to boost their revenue.</t>
   </si>
   <si>
@@ -419,9 +389,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. The gentlelady yields back the time.    The chair recognizes the gentleman from Pennsylvania, Mr. Perry, for 5 minutes and his questions.</t>
-  </si>
-  <si>
-    <t>Perry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Secretary Glaser, what is the current policy of the administration regarding U.S. dollars in Iran or--U.S. dollars are hard currency, right? You would characterize that as hard currency?</t>
@@ -913,11 +880,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -937,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -965,11 +928,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -991,11 +952,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1017,11 +976,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1041,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1069,11 +1024,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1095,11 +1048,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1121,11 +1072,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1147,11 +1096,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1173,11 +1120,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1199,11 +1144,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1225,11 +1168,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1251,11 +1192,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1277,11 +1216,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1303,11 +1240,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1329,11 +1264,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1355,11 +1288,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1381,11 +1312,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1407,11 +1336,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1433,11 +1360,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1459,11 +1384,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1485,11 +1408,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1511,11 +1432,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1537,11 +1456,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1563,11 +1480,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1589,11 +1504,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1615,11 +1528,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1641,11 +1552,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1667,11 +1576,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1693,11 +1600,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1719,11 +1624,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1745,11 +1648,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1771,11 +1672,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1797,11 +1696,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1821,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1849,11 +1744,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1873,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1901,11 +1792,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1925,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1953,11 +1840,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1977,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2005,11 +1888,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2029,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2057,11 +1936,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2081,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2109,11 +1984,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2133,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2161,11 +2032,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2187,11 +2056,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2213,11 +2080,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2239,11 +2104,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2265,11 +2128,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2291,11 +2152,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2317,11 +2176,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2343,11 +2200,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2369,11 +2224,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2395,11 +2248,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2421,11 +2272,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2447,11 +2296,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2473,11 +2320,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2499,11 +2344,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2525,11 +2368,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2551,11 +2392,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2577,11 +2416,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2603,11 +2440,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2629,11 +2464,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2655,11 +2488,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2679,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2707,11 +2536,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2731,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2759,11 +2584,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2783,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2811,11 +2632,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2837,11 +2656,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2863,11 +2680,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2889,11 +2704,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2915,11 +2728,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2941,11 +2752,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2967,11 +2776,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2993,11 +2800,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3019,11 +2824,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3045,11 +2848,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>96</v>
-      </c>
-      <c r="H84" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3071,11 +2872,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3097,11 +2896,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>96</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3123,11 +2920,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3149,11 +2944,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3175,11 +2968,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3201,11 +2992,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>96</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3227,11 +3016,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3253,11 +3040,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>96</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3279,11 +3064,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3305,11 +3088,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>96</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3331,11 +3112,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3357,11 +3136,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>96</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3383,11 +3160,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3409,11 +3184,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>96</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3435,11 +3208,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3461,11 +3232,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>121</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3487,11 +3256,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3513,11 +3280,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3539,11 +3304,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3565,11 +3328,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>121</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3591,11 +3352,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3617,11 +3376,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3643,11 +3400,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>121</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3669,11 +3424,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3695,11 +3448,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
         <v>121</v>
-      </c>
-      <c r="H109" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3721,11 +3472,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3747,11 +3496,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>121</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3773,11 +3520,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3799,11 +3544,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>135</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3825,11 +3568,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3851,11 +3592,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>135</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3877,11 +3616,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3903,11 +3640,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>135</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3929,11 +3664,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3955,11 +3688,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>135</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3981,11 +3712,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4007,11 +3736,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>135</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4033,11 +3760,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4059,11 +3784,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
         <v>135</v>
-      </c>
-      <c r="H123" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4085,11 +3808,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4111,11 +3832,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>135</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4137,11 +3856,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4163,11 +3880,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>135</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4189,11 +3904,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4215,11 +3928,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>135</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4241,11 +3952,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4267,11 +3976,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>135</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4293,11 +4000,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4319,11 +4024,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>135</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4345,11 +4048,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4371,11 +4072,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>135</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4397,11 +4096,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4423,11 +4120,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>135</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4449,11 +4144,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4475,11 +4168,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>135</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4501,11 +4192,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4527,11 +4216,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>135</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4553,11 +4240,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4579,11 +4264,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>135</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,30 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. The subcommittees will come to order.    Without objection, all members may have 5 days to submit statements, questions, and extraneous materials for the record, subject to the length limitation and the rules.    I recognize myself for the opening statement.    Time and time again, we are reminded of the massive damage that terrorists cause even with just a little money. Today, terrorist groups have more money than some small countries. ISIS is the richest terrorist organization in world history, bringing in over $1 billion in 2014 alone.    Drawing on these funds, ISIS has managed to stage terrorist attacks throughout the world and kill thousands of people. ISIS is not alone. Terrorists raise billions annually to carry out their bloody agendas. This is precisely why our Government agencies have been tasked with stemming the flow of money to terrorist groups. When we can separate the terrorists from their money, lives can be saved.    According to the Treasury Department, the underlying vulnerabilities within the U.S. financial system today ``remain largely the same as those identified in 2005.'' Terrorists are still able to park and move cash through financial systems.    Part of the problem is that the United States still does not have a comprehensive strategy across all American agencies to combat terrorist financing. Policies and priorities differ from one agency to the next in a seemingly ad hoc fashion. In fact, there isn't even a clear method by which our various agencies can coordinate their efforts. Agencies working on counterterrorist finance had previously coordinated through the Terrorist Financing Working Group. However, this working group has been on a hiatus for some time and agencies are forced to coordinate informally.    Another tool to counter terrorist financing that hasn't been used: Designation of domestic charities. According to the Treasury Department's Web site, the United States has not blacklisted any charities since the February 2009 designation of the Tamil Foundation. There are also nonconcrete metrics in place to measure the effectiveness of counterterrorist finance efforts, making it difficult to determine the need and appropriate tools required for a successful strategy.    For instance, the counter-ISIL finance cell was established in late 2014 to work on intelligence collection and operations to cut off ISIS' financing. The administration says that the cell has significantly improved our understanding of ISIS' financial activity. This is a start, but what are the cell's metrics of success? What are its goals, and how do we know if it is doing a good job?    Beyond its own government efforts, we still have a long way to go when it comes to collaborating with our international partners to counter terror finance, to ensure our efforts are not fragmented, and that our respective skills and intelligence are leveraged correctly.    Sometimes our international partners seem to be doing exactly the opposite of what our policy is. According to U.S. Government figures, terrorist groups earned over $165 million between 2000 and 2014 from governments that make ransom payments. To better understand the significance of this troubling trend, Treasury Under Secretary David Cohen said in 2012 that kidnapping for ransom has become so lucrative for terrorists that it is today's most significant source of terrorist financing.    Denying terrorists ransom payments is not just a U.S. policy. It is the international standard champion by the Financial Action Task Force, the Counter-ISIL Financing Group, and the United Nations.    International noncompliance with antiterror financing standards does not just end there. According to a Financial Action Task Force report, almost every country in the world has enacted antiterror financing laws, but only 33 of the 194 countries surveyed have actually reported any convictions using these laws.    The laws are worthless unless they are put into action. We must do more to get our partners to implement these laws so that they will have already passed in their respective nations.    Our international partners can also do more to stop the flow of money from private donors to terrorist groups. Between 2013 and 2014, ISIS received $40 million from donors in Saudi Arabia, Qatar, and Kuwait. All those countries have terror financing laws on the books, but the money still flows across their borders to ISIS.    The more we can improve on both our internal coordination and our international cooperation, the less money terrorists can have. We need more information. We need to have more information, and we know both wildlife trafficking and trade-based money laundering are sources for revenue for terrorists as well. We simply have not collected the necessary intelligence, however, and done the required analysis to understand these sources.    Going after sources of revenue for terrorists can be a powerful tool to render them powerless. Terrorists need money to pay their fighters, buy their weapons, and pull off the attacks. If we can work to deny them the money, that means we are a big step closer to defeating terrorists worldwide.    I will now yield to the gentleman from South Carolina to make his opening statement.</t>
   </si>
   <si>
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Judge Poe, and thank you for recommending this hearing on such an important topic. And I am pleased that we are reviewing this subject in a joint hearing of the two subcommittees.    Since I sit on your subcommittee in addition to chairing the Emerging Threats, I consider this a very efficient use of time. I would also like to thank Ranking Member Jim Langevin and Ranking Member Bill Keating for their contributions and participation today.    We welcome our panel of experts from this interagency team for today's hearing. I would especially like to welcome back Secretary Theresa Whelan from the Department of Defense. Secretary Whelan has appeared before the Armed Services Committee many times, as well as the subcommittee. She brings a wealth of knowledge and experience on important issues within her portfolio.    And I am pleased to have the opportunity today to talk about the topic of countering terrorist financing with our colleagues from the Terrorism, Nonproliferation, and Trade Subcommittee. I am honored to be the chairman of the Emerging Threats and Capabilities Subcommittee as we oversee some of the most forward-looking, cutting edge, and in-demand aspects of the Department of Defense.    As we consider this important topic today of countering terrorist financing, I think we should keep in mind two important frames of reference. First, countering the finances of terrorist groups remains a relatively new area of focus for the United States Government and interagency in particular.    Although the attacks of September 11 serves as the most recent forcing function, the subsequent wars of Afghanistan and Iraq showed us that the unabated financing of terrorists and insurgence groups can prolong conflicts and frustrate our national security objectives putting American families at risk.    The more recent rise of ISIL, or Daesh, with nearly $1 billion in annual revenue proves again, for our enemies, cash remains king.    Second, we should continually keep in mind how difficult this problem set is. Eliminating and countering the finances of illicit and terrorist networks that operate in ever changing and clandestine manner is very difficult work. I encourage each of the colleagues today to ask questions of our witnesses on how they are resourced in this important fight to stem the flow of dollars to our enemies.    I again would like to thank Judge Poe for holding this joint hearing between the two subcommittees. I look forward to hearing from our distinguished panel of witnesses today.    And with that, I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. I thank the chairman of the Armed Services Emerging Threats and Capabilities Subcommittee.    I yield to the gentleman from Massachusetts, Mr. Bill Keating, for his opening statement, the ranking member of the Terrorism Subcommittee.</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Well, thank you, Chairman Poe, for conducting the afternoon's hearing, and I appreciate your concern for terrorist financing and your leadership on continuing this conversation both within Congress and externally. I would also like to thank Chairman Wilson and Ranking Member Langevin of the Armed Services Subcommittee on Emerging Threats and Capabilities for their shared focus and work on this subject as well.    And of course, I appreciate the time of our witnesses who have joined from the Department of State, Treasury, Defense, and Interior to discuss this critical topic. Your ongoing attention and commitment to countering terrorist financing is the bedrock of our coordinated effort to stop the money flow, as the title of today's hearing suggests.    I also think it should be said strongly and with great appreciation for the work that is done by our men and women that are serving so well in the military. Just within the last 4 weeks, I was honored to join them aboard the aircraft carrier Harry S. Truman and see their mission in interrupting financing as well in a direct military sense. Their success at destroying cash depots and interrupting oil supply has been extraordinary, and their service should be recognized in this hearing as well.    But as we know, terrorist financing has to be resolved at many levels in terms of trying to attack it, and it is a complicated, intricate, nuanced, and clandestine effort, making it difficult to identify, follow, and to stop. Organized groups such as ISIL rely on diversified revenue streams ranging from pirated oil fields and extortion to imposition of taxes on areas that it controls, to seizures, and to the sale of looted antiquities.    Our concern doesn't end with the trafficking of foreign terrorist organizations, however. Organized crime syndicates also fund illicit activities through a variety of subversive efforts. Wildlife trafficking, for example, is estimated to generate billions of dollars for organized crime enterprises. It has also been reported that these groups are using human and organ trafficking as well as--for a revenue source, in addition to illicitly smuggling tobacco and tobacco products.    Not only do such black market dealings contribute to an illegal economy, but they fuel instability and they undermine global security. This is not to say the U.S. has not had success. Just this week, the U.S. Fish and Wildlife Service led efforts to institute a near total ban on domestic, commercial trade of elephant ivory, which aims at reducing the opportunities for wildlife traffickers to trade illegal ivory under the guise of legal products.    Over a 3-year period, an estimated 100,000 elephants were killed for their ivory, which is an average of approximately one every 15 minutes. These animals--ivory generates millions of dollars in illegal funds.    Separately, last month, the President signed into law legislation that imposes tough new import restrictions on antiquities that attract trafficking out of Syria. I was proud to play a leading role in advancing H.R. 1493, along with the support of the Foreign Affairs Committee Chairman Ed Royce, Ranking Member Engel, and Chairman Judge Poe.    These successes, however, should not allow us to become complacent. While identifying and stopping traditional financing methods, such as hawala and hawala trade-based money laundering, the cash couriers are important. Agencies must look at new and emerging ways through which organizations are able to generate funds.    Virtual currency platforms and digital finance allows organized crime and terrorist groups to commit crimes anonymously. Digital currencies could facilitate money laundering, alleviating the need for criminal infrastructures at their base.    With respect to terrorism, anonymous marketplaces on the Internet allow the sale of illegal goods and services and risk the convergence of terrorism and organized crime. We must utilize all the resources at our disposal to target every terrorist organized crime funding entity no matter where it comes from.    I look forward to hearing from today's witnesses on these subjects, as well as working with our international allies to end and prevent terrorist organizations from generating this type of illicit money.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -73,30 +88,48 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank you and Chairman Wilson and Ranking Member Keating for convening this hearing, and I especially want to thank our witnesses for being here today.    In particular, I want to welcome Secretary Whelan here who has been before our subcommittee many times. I appreciate your presence, to all of you, and look forward to your testimony.    So I am pleased to join my Foreign Affairs Committee colleagues on the topic of countering threat financing. The combined force of our committees on this issue is paramount because effective CTF requires the collaboration and synchronization of a multitude of U.S. Government agencies. Holding this joint hearing will provide us an opportunity to understand CTF efforts and strategies in a holistic manner and what we can do to enhance its overall effectiveness.    Threat financing activities comes in many forms, from, as my colleagues have touched on already, from illicit drug trafficking, to wildlife poaching, to ISIL's alarming oil revenues. And understanding such activities and the associated organizations and networks, of course, is the first step, including the alternative financing through traditional financial institutions, as Mr. Keating had talked about, understanding the role that that is playing.    The Department of Defense plays a key role in this endeavor by providing threat finance intelligence, or TFI, to enhance our understanding of the challenges before us. Today, I look forward to hearing more about how such information is shared amongst agencies in a timely manner and used to produce synchronized goals and efforts to disrupt, degrade, and destroy such financing.    I also look forward to hearing from DOD and other agencies about the progress that has been made when it comes to institutionalizing CTF. This collaboration in Afghanistan resulted in many successes, and it is imperative we have a grasp on how such lessons learned are being leveraged.    With respect to the DOD, has progress been made on gaps identified in the recent capabilities-based assessment, such as CTF integration into joint plans and joint doctrine? How are we measuring the effectiveness of these efforts?    And finally, I hope today will provide insight into ongoing U.S. Government efforts in countering ISIL's oil revenue and the challenges we face on this front, as well as overall challenges with CTF that our committees could be helpful in providing solutions to when working with agencies.    So with that, I thank again our witnesses for being here. And thank you, Mr. Chairman. I would yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Rhode Island.    Without objection, all members may have 5 days to submit statements, questions, and extraneous material for the record subject to the length limitation in the rules.    I will introduce the witnesses and give them time for opening statements.    Mr. Daniel Glaser is the assistant secretary for terrorist financing in the Treasury Department's Office of Terrorism and Financial Intelligence. Mr. Andrew Keller is the deputy assistant secretary for counterthreat finance and sanctions in the State Department's Bureau of Economic and Business Affairs. Ms. Theresa Whelan serves as the principal deputy assistant secretary for defense for special operations, low intensity conflict. She is a career member of the Senior Executive Service and has worked for 27 years in the defense intelligence area. Mr. William Woody is the chief of the Office of Law Enforcement of the U.S. Fish and Wildlife Service.    Without objection, the witnesses' prepared statements will be made part of the record.    I ask the witnesses please keep your remarks to no more than 5 minutes. If you hear the gavel, that means you have got to stop. So 5 minutes, and we will start with you, Mr. Glaser. You may present your opening statement.</t>
   </si>
   <si>
+    <t>Glaser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Glaser. Chairman Poe, Chairman Wilson, Ranking Members Keating and Langevin, thank you for inviting me to testify on our efforts to combat terrorist financing. Disrupting the flow of funds to terrorists and terrorist organizations is an integral part of our broader strategy to combat terrorism. Treasury is in a unique position to advance these efforts.    At its core, combating terrorist financing consists of two interrelated objectives. First, cutting terrorists off from their sources of revenue so they cannot make money; second, denying them access to the international financial system so they cannot use the money they have.    We accomplish these goals by improving financial transparency globally so that terrorists cannot anonymously raise, move, and use funds without detection, and then identifying, disrupting, and dismantling the networks supporting terrorist organizations.    We have a range of tools available to us to do so. Financial measures, such as targeted sanctions and section 311 of the USA PATRIOT Act, law enforcement actions, and engagement with foreign partners in the private sector. The combined effect of these efforts is to create an international financial system that is a hostile environment for terrorist financing.    I would like to briefly summarize our efforts to disrupt the financial networks of three prominent terrorist organizations: ISIL, al-Qaeda, and Hezbollah. I will speak first to ISIL, the vast majority of whose revenue, estimated at almost $1 billion in 2015, is derived internally from a combination of oil sales and extortion of the population and commercial activity under its control. The fact that these sources of revenue are derived from ISIL's control of territory has meant that military action has been an important component of our response.    Under Operation Title Wave II, the coalition directly targeted ISIL's entire oil supply chain and destroyed tens of millions and possibly more than $100 million of ISIL's bulk cash. Our response, however, has been broader than military action. For example, the Government of Iraq decided in August 2015 to ban the distribution of government salaries into ISIL-held areas, thereby eliminating ISIL's ability to tax these substantial funds. Additionally, we have worked closely with the Central Bank of Iraq to secure Iraq's financial system from access by ISIL.    Turning now to al-Qaeda. Al-Qaeda remains a critical threat to the United States, and we continue to aggressively target the organization around the world. Al-Qaeda has historically received funds from within Gulf countries, safe haven in Afghanistan and Pakistan, and now is increasingly present in Yemen and Syria. We have made significant progress targeting al-Qaeda's financing in concert with our partners internationally. However, the terrorist financing risk emanating from the Gulf remains a priority.    Collectively, Gulf countries have pursued a wide range of actions, including implementing targeted financial measures and prosecuting terrorists for financing al-Qaeda, but considerable work remains to be done to ensure that terrorist financiers are unable to raise and move funds within Gulf countries. And we are committed to working with our partners in the region to see that this is done.    Our efforts have not been limited solely to the Gulf. Treasury has continued to work toward disrupting and dismantling terrorist financial networks in Afghanistan and Pakistan as well. We have aggressively used Treasury tools to limit al-Qaeda funding streams, designating over 140 individuals affiliated with al-Qaeda and other terrorist organizations throughout Afghanistan and Pakistan.    It is important to remember, however, that before al-Qaeda's attack on 9/11, Hezbollah had killed more Americans than any other terrorist organization in history, and it continues to plot terrorist attacks around the world. Hezbollah receives the majority of its funding, hundreds of millions of dollars, from Iran, as well as millions of dollars from a global network of supporters and businesses.    Our approach has focused on targeting Hezbollah both within Lebanon, constraining it financially through extensive cooperation with Lebanese authorities and banks, and globally, by targeting its procurement agents and financiers in Europe, Latin America, East Asia, and the Middle East.    Identifying and sanctioning Hezbollah's Iranian sponsors and enabling law enforcement and foreign partner actions, our toolkit to impose targeted measures against Hezbollah was recently expanded with the passage of Hizballah International Financing Prevention Act of 2015, or HIFPA. HIFPA represents a continuation of our policy to financially weaken Hezbollah. Foremost in ensuring our implementation of HIFPA is our close collaboration with the Central Bank of Lebanon and private Lebanese financial institutions, which are adhering to this legislation--which are adhering to this legislation to Hezbollah's great consternation.    We intend to implement HIFPA robustly in a manner that is consistent with preserving the strength and health of the Lebanese financial system and that does not target any specific community or sect. Our implementation intends to target one group and one group only: Hezbollah, the organization, its members, the entities it owns and controls.    While new terrorist financing challenges will surely emerge, Treasury and its interagency partners will continue to employ a range of measures to identify, disrupt, and dismantle terrorist financial networks and work to identify and close loopholes that terrorists and other illicit actors can use to access the international financial system.    Thank you for the opportunity to testify today, and I would be happy to answer any questions you might have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Glaser.    Mr. Keller, you have 5 minutes.</t>
   </si>
   <si>
+    <t>Keller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keller. Chairman Poe, Chairman Wilson, Ranking Member Keating, Ranking Member Langevin, distinguished members of the committees, thank you for the opportunity to speak here today about the State Department's counterterrorism finance efforts.    Counterterrorism finance is a top priority for the Department of State, and we have a wide variety of tools to disrupt terrorist financial networks. It is a complex and dynamic threat and one that requires the U.S. Government to utilize the full range of its resources and authorities.    My office at the State Department helps coordinate policy and liaise with our interagency partners, including the Departments of Treasury and Defense, to achieve our counterterrorism goals. We also work closely with the State Department's counterterrorism bureau and the Department of Treasury on counterterrorism finance sanctions to ensure that our sanctions promote broader U.S. foreign policy interests.    The fight against ISIL is one of the top national security priorities, and it is my principal counterterrorism focus. That is where I will focus my remarks today.    As you highlighted, Chairman Poe, ISIL's revenues in 2014 and 2015 made it the richest terrorist group in the world, yet as a result of U.S. and coalition efforts, ISIL's revenues are on a downward trajectory, which has impacted its operations in Iraq and Syria. I would like to provide two examples.    ISIL has cut salary payments to its fighters in Raqqa and Mosul by 50 percent, leaving many ISIL fighters to defect. And ISIL has increasingly resorted to arbitrary tax increases and outright theft to make up the funding gap, further undermining its claims to legitimacy.    While we are encouraged by these indications of financial stress, we are fully aware that there is still much work to do to further weaken ISIL on the financial front. Our most effective method of disrupting ISIL's revenues to date has been U.S. and coalition strikes against their oil and gas supply chain and cash storage sites. These efforts have reduced ISIL's oil revenues by up to one-third and destroyed tens and potentially hundreds of millions of dollars' worth of cash.    Kinetic efforts have complemented diplomatic efforts aimed at ISIL's finances. The U.S. Government helped establish and now coleads an international working group dedicated to counter ISIL finance, and we have negotiated multiple U.N. Security Council resolutions to increase financial pressure on ISIL. In particular, I would highlight Security Council Resolution 2199, which imposes obligations on all countries to take steps to combat ISIL financing, particularly in the areas of oil, antiquities, and kidnapping for ransom.    The Department of State also conducts bilateral diplomatic engagement with key countries in the Middle East and around the world. Our Embassies consistently engage foreign government officials on specific terrorism finance matters, promote counterterrorism finance tools more generally, and encourage implementation of domestic and international legal framework to combat terrorism.    In an effort to address the systemic gaps in the international system that terrorists and other criminals exploit to raise and transfer funds, the State Department also allocates significant funding to build the capacity of partner countries to counter terrorist financing. The Bureau of Counterterrorism is helping partner nations build their capacity to investigate and prosecute illicit financial transactions, while the State Department Bureau of International Narcotics and Law Enforcement funds programs to help countries identify how they can improve their antimoney laundering and counterterrorism finance regulations.    With regard to trafficking in antiquities, the Department of State has also led outreach to prominent antiquities dealers, auction houses, and museum administrators. We have offered up to $5 million worth of reward money for information leading to the disruption of ISIL's trafficking in antiquities through our Rewards for Justice program, and we have funded government and civil society training program to help protect antiquities in Iraq, Syria, and Libya.    Terrorism finance is a multifaceted and dynamic problem, and ISIL has proven to be a resilient foe. As our efforts targeting ISIL financing demonstrate, counterterrorism finance is a top property priority for our State Department and our interagency partners. We will continue to use every tool available to maintain the growing effectiveness of our economic campaign.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Keller.    Ms. Whelan.</t>
   </si>
   <si>
+    <t>Whelan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Whelan. Chairman Wilson, Chairman Poe, Ranking Member Langevin, Ranking Member Keating, and other distinguished members of the subcommittees, I appreciate the opportunity to share information with you about the Department of Defense's counterthreat finance capability.    DOD's counter-threat finance, or CTF, supports both military operations and U.S. Government partners, including our law enforcement colleagues. DOD CTF identifies and exploits the financial vulnerabilities of terrorists and transnational criminals.    Over a decade ago, we built a small but effective CTF capability within the Department through our counternarcotics authorities and appropriations. Counternarcotics is an appropriate source of authority and resources, given that the drug trade remains the world's most lucrative criminal enterprise.    Funds from the illegal drug trade are often associated with other illicit criminal enterprises, insurgencies, and terrorist organizations, including the Taliban in Afghanistan; the Revolutionary Armed Forces of Colombia, the FARC; and Lebanese Hezbollah.    Today, DOD has dedicated CTF teams at its combatant commands, at the National Guard Bureau, and at intelligence components. The CTF teams analyze financial intelligence, integrate intelligence in operations, and coordinate and execute CTF activities within the Department and with and in support of U.S. interagency partners.    DOD is not the lead U.S. agency for conducting CTF, but DOD employs unique analytic capabilities to assist other partners in accomplishing the overall CTF mission. For example, DOD analysts help support our Department of Treasury colleagues' efforts to develop designations against individuals and organizations engaged in illicit finance.    DOD CTF analysts help to identify vulnerabilities and to create a comprehensive analysis for U.S. Government partners to target an adversary's financial structure. CTF has proven to be a cost-effective tool against threatening forces and transnational criminal organizations, whether through law enforcement actions, designations, sanctions, or, as in the case of ISIL, through military actions against economic and financial targets.    DOD CTF supports the Department of State and the Department of Treasury, which are the coleads for the U.S. Government's effort to disrupt ISIL's finances. Over the past several months, ISIL has lost financial capability and revenue. Coalition military operations informed by CTF have struck nearly two dozen ISIL bulk cash storage sites and multiple targets affiliated with ISIL's illicit oil industry. Recent estimates indicate ISIL's oil production has decreased by up to 30 percent, and their ability to generate revenue has been reduced by at least as much.    In order for DOD CTF to continue supporting these and future successes on the battlefield and in law enforcement and diplomacy, we must ensure that our CTF capability is well grounded in our Department's policy planning doctrine and training and education. For example, last October, the deputy secretary of Defense recertified DOD's directive on counterthreat finance policy through 2020. We also are working to ensure that DOD plans and joint doctrine include CTF where appropriate.    Congress' support for the DOD counterdrug authorities and counterdrug funding underpins our CTF program success. Thanks to congressional support, executive branch partnership, and our talented DOD CTF personnel who work quietly behind the scenes, DOD CTF continues to provide a cost-effective capability against international terrorists and criminal adversaries that threaten our Nation, its citizens, and our allies.    Thank you for this opportunity to share with you the information about DOD's counterthreat finance program, and I welcome your comments and questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Ms. Whelan.    Mr. Woody.</t>
   </si>
   <si>
+    <t>Woody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Woody. Good afternoon, Chairman Poe, Chairman Wilson, Ranking Member Keating, Ranking Member Langevin, and members of the subcommittees. I am William Woody. I am chief of law enforcement for the U.S. Fish and Wildlife Service, and I appreciate the opportunity to testify before you today.    Wildlife trafficking is a multibillion dollar illegal trade fueled by demand and enabled by corruption, limited legal authorities, and law enforcement capacity. Globally, organized criminal groups have seized upon wildlife trafficking as a low risk, high reward, and have made illegal wildlife trafficking a crisis.    Our special agents and inspectors have specifically documented transnational organizations involved in trafficking of endangered species. We have documented Eastern European and Russian organized crime in the caviar trade, Irish organized crime in the rhino horn trade, Mexican drug organizations in the totoaba trade, African gangs in the elephant ivory poaching and smuggling, and Asian criminal groups in timber trafficking. I would like to draw your attention now to the slides. Of course, the slides won't come up.</t>
   </si>
   <si>
@@ -280,6 +313,9 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from Rhode Island.    Ms. Whelan, submit the answer to that question to both committee chairs, the full committee chairs, and that will be dispersed to everyone, including the gentleman from Rhode Island.    The chair recognizes Colonel Cook--I started to say former Marine, but there is no such thing as a former Marine--from California.</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Judge. You are absolutely correct.    Mr. Keller, if I were President of the United States, heaven forbid, but if I said to you, what do you think, one, two, or three, are the top countries, state-sponsored aid, financial aid, to ISIS or ISIL or Daesh, whatever you want to call them, who would you name, one, two, or three? Just briefly.</t>
   </si>
   <si>
@@ -352,6 +388,9 @@
     <t xml:space="preserve">    Mr. Poe. I thank the gentleman from California.    Without objection, the chair will recognize Ms. Gabbard from Hawaii, who is a member of both full committees, unless there is objection.    Without objection, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Mr. Keller and, both, Mr. Glaser, you have talked about how Turkey has stepped up and that they are doing more. Can you give us more specifics on what that is?    Because, like many of my colleagues, we have concerns about the leadership in Turkey, what they have done directly and indirectly, what they have not done, more importantly, as well as the informal economy that we know ISIS is using to both smuggle cash and other things to boost their revenue.</t>
   </si>
   <si>
@@ -389,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. The gentlelady yields back the time.    The chair recognizes the gentleman from Pennsylvania, Mr. Perry, for 5 minutes and his questions.</t>
+  </si>
+  <si>
+    <t>Perry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Secretary Glaser, what is the current policy of the administration regarding U.S. dollars in Iran or--U.S. dollars are hard currency, right? You would characterize that as hard currency?</t>
@@ -830,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,3413 +902,3866 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>99</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>99</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>99</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>124</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>124</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>124</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>124</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>138</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>138</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>138</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>138</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>138</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>138</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>138</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>138</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>138</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>138</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>155</v>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>138</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20383.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>400230</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Langevin</t>
@@ -872,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,7 +889,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,3863 +914,4032 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>99</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>99</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>102</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>99</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>102</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>99</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>99</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>102</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>99</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>124</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>124</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>124</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>127</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>124</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>127</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>124</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>127</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>124</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>138</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>138</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>138</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>141</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>141</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>138</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>141</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>138</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>141</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>138</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>141</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>141</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>138</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>141</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>138</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>141</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>138</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>141</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>138</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>141</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>138</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>141</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>138</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>141</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>138</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>141</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>138</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>169</v>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>141</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
